--- a/ItemTable.xlsx
+++ b/ItemTable.xlsx
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -781,196 +781,313 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1018</v>
+      </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1019</v>
+      </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1020</v>
+      </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1021</v>
+      </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1022</v>
+      </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1023</v>
+      </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1024</v>
+      </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1025</v>
+      </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1026</v>
+      </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1027</v>
+      </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1028</v>
+      </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1029</v>
+      </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1030</v>
+      </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1031</v>
+      </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1032</v>
+      </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1033</v>
+      </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1034</v>
+      </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>1035</v>
+      </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1036</v>
+      </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1037</v>
+      </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>1038</v>
+      </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>1039</v>
+      </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1040</v>
+      </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>1041</v>
+      </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>1042</v>
+      </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>1043</v>
+      </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>1044</v>
+      </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>1045</v>
+      </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>1046</v>
+      </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>1047</v>
+      </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>1048</v>
+      </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>1049</v>
+      </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>1050</v>
+      </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>1051</v>
+      </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>1052</v>
+      </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>1053</v>
+      </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>1054</v>
+      </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>1055</v>
+      </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>1056</v>
+      </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>

--- a/ItemTable.xlsx
+++ b/ItemTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,11 +254,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//조합법이 없는 재료들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//조합법이 있는 재료들</t>
+    <t>Sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloaks,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,252</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items,38</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -629,6 +853,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
@@ -638,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -649,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -659,6 +886,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -667,6 +897,9 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -675,6 +908,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -683,6 +919,9 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -691,6 +930,9 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -699,6 +941,9 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -707,6 +952,9 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -715,6 +963,9 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -723,6 +974,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -731,6 +985,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -739,6 +996,9 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -747,6 +1007,9 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -755,341 +1018,470 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1015</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1016</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1019</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1020</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1021</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1022</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1023</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1024</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1025</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1026</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1027</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1028</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1029</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1030</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1031</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1032</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1033</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1034</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1035</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1036</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1037</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1038</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1039</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1040</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1041</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1042</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1043</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1044</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1045</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1046</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1047</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1048</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1049</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1050</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1051</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1052</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1053</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1054</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1055</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1056</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/ItemTable.xlsx
+++ b/ItemTable.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitFiles\toolprograming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B035793-4EB9-484B-9F82-65AACCC928B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="24" windowWidth="17832" windowHeight="6888"/>
+    <workbookView xWindow="7485" yWindow="6840" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,238 +264,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blocks,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloaks,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blocks,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,252</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,376</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,374</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,183</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,174</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,371</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,377</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,246</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,244</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,176</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,227</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,356</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items,38</t>
+    <t>SpriteIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,6 +333,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -590,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,9 +416,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -658,6 +468,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,20 +660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.8984375" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,8 +684,11 @@
       <c r="C1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -865,10 +696,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -878,8 +712,11 @@
       <c r="C3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -887,10 +724,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -898,10 +738,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -909,10 +752,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -920,10 +766,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -931,10 +780,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -942,10 +794,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -953,10 +808,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -964,10 +822,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -975,10 +836,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -986,10 +850,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -997,10 +864,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -1008,10 +878,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1019,10 +892,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1030,10 +906,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1041,10 +920,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1052,10 +934,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1063,10 +948,13 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -1074,10 +962,13 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -1085,10 +976,13 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -1096,10 +990,13 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -1107,10 +1004,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -1118,10 +1018,13 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -1129,10 +1032,13 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -1140,10 +1046,13 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -1151,10 +1060,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -1162,10 +1074,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -1173,10 +1088,13 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -1184,10 +1102,13 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -1195,10 +1116,13 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D32">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -1206,10 +1130,13 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D33">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -1217,10 +1144,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D34">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1033</v>
       </c>
@@ -1228,10 +1158,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1034</v>
       </c>
@@ -1239,10 +1172,13 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1035</v>
       </c>
@@ -1250,10 +1186,13 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D37">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1036</v>
       </c>
@@ -1261,10 +1200,13 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D38">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1037</v>
       </c>
@@ -1272,10 +1214,13 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D39">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1038</v>
       </c>
@@ -1283,10 +1228,13 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1039</v>
       </c>
@@ -1294,10 +1242,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D41">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1040</v>
       </c>
@@ -1305,10 +1256,13 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1041</v>
       </c>
@@ -1316,10 +1270,13 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1042</v>
       </c>
@@ -1327,10 +1284,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1043</v>
       </c>
@@ -1338,10 +1298,13 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1044</v>
       </c>
@@ -1349,10 +1312,13 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1045</v>
       </c>
@@ -1360,10 +1326,13 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1046</v>
       </c>
@@ -1371,10 +1340,13 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D48">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1047</v>
       </c>
@@ -1382,10 +1354,13 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D49">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1048</v>
       </c>
@@ -1393,10 +1368,13 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1049</v>
       </c>
@@ -1404,10 +1382,13 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1050</v>
       </c>
@@ -1415,10 +1396,13 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1051</v>
       </c>
@@ -1426,10 +1410,13 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D53">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1052</v>
       </c>
@@ -1437,10 +1424,13 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1053</v>
       </c>
@@ -1448,10 +1438,13 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1054</v>
       </c>
@@ -1459,10 +1452,13 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1055</v>
       </c>
@@ -1470,10 +1466,13 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1056</v>
       </c>
@@ -1481,7 +1480,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>62</v>
+      </c>
+      <c r="D58">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1491,14 +1493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1506,12 +1508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ItemTable.xlsx
+++ b/ItemTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitFiles\toolprograming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B035793-4EB9-484B-9F82-65AACCC928B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717133E0-286B-4B1C-9CC7-05D67FC2D03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="6840" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="2730" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,14 @@
   </si>
   <si>
     <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equips</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,7 +682,7 @@
     <col min="4" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +695,11 @@
       <c r="D1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -701,8 +712,11 @@
       <c r="D2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -715,8 +729,11 @@
       <c r="D3">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -729,8 +746,11 @@
       <c r="D4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -743,8 +763,11 @@
       <c r="D5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -757,8 +780,11 @@
       <c r="D6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -771,8 +797,11 @@
       <c r="D7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -785,8 +814,11 @@
       <c r="D8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -799,8 +831,11 @@
       <c r="D9">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -813,8 +848,11 @@
       <c r="D10">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -827,8 +865,11 @@
       <c r="D11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -841,8 +882,11 @@
       <c r="D12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -855,8 +899,11 @@
       <c r="D13">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -869,8 +916,11 @@
       <c r="D14">
         <v>319</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -883,8 +933,11 @@
       <c r="D15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -897,8 +950,11 @@
       <c r="D16">
         <v>253</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -911,8 +967,11 @@
       <c r="D17">
         <v>252</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -925,8 +984,11 @@
       <c r="D18">
         <v>242</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -939,8 +1001,11 @@
       <c r="D19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -953,8 +1018,11 @@
       <c r="D20">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -967,8 +1035,11 @@
       <c r="D21">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -981,8 +1052,11 @@
       <c r="D22">
         <v>249</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -995,8 +1069,11 @@
       <c r="D23">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -1009,8 +1086,11 @@
       <c r="D24">
         <v>254</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -1023,8 +1103,11 @@
       <c r="D25">
         <v>403</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -1037,8 +1120,11 @@
       <c r="D26">
         <v>402</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -1051,8 +1137,11 @@
       <c r="D27">
         <v>401</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -1065,8 +1154,11 @@
       <c r="D28">
         <v>399</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -1079,8 +1171,11 @@
       <c r="D29">
         <v>376</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -1093,8 +1188,11 @@
       <c r="D30">
         <v>375</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -1107,8 +1205,11 @@
       <c r="D31">
         <v>374</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -1121,8 +1222,11 @@
       <c r="D32">
         <v>372</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -1135,8 +1239,11 @@
       <c r="D33">
         <v>183</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -1149,8 +1256,11 @@
       <c r="D34">
         <v>182</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1033</v>
       </c>
@@ -1163,8 +1273,11 @@
       <c r="D35">
         <v>181</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1034</v>
       </c>
@@ -1177,8 +1290,11 @@
       <c r="D36">
         <v>174</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1035</v>
       </c>
@@ -1191,8 +1307,11 @@
       <c r="D37">
         <v>230</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1036</v>
       </c>
@@ -1205,8 +1324,11 @@
       <c r="D38">
         <v>229</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1037</v>
       </c>
@@ -1219,8 +1341,11 @@
       <c r="D39">
         <v>228</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1038</v>
       </c>
@@ -1233,8 +1358,11 @@
       <c r="D40">
         <v>220</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1039</v>
       </c>
@@ -1247,8 +1375,11 @@
       <c r="D41">
         <v>371</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1040</v>
       </c>
@@ -1261,8 +1392,11 @@
       <c r="D42">
         <v>377</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1041</v>
       </c>
@@ -1275,8 +1409,11 @@
       <c r="D43">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1042</v>
       </c>
@@ -1289,8 +1426,11 @@
       <c r="D44">
         <v>244</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1043</v>
       </c>
@@ -1303,8 +1443,11 @@
       <c r="D45">
         <v>250</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1044</v>
       </c>
@@ -1317,8 +1460,11 @@
       <c r="D46">
         <v>243</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1045</v>
       </c>
@@ -1331,8 +1477,11 @@
       <c r="D47">
         <v>177</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1046</v>
       </c>
@@ -1345,8 +1494,11 @@
       <c r="D48">
         <v>176</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1047</v>
       </c>
@@ -1359,8 +1511,11 @@
       <c r="D49">
         <v>180</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1048</v>
       </c>
@@ -1373,8 +1528,11 @@
       <c r="D50">
         <v>175</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1049</v>
       </c>
@@ -1387,8 +1545,11 @@
       <c r="D51">
         <v>224</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1050</v>
       </c>
@@ -1401,8 +1562,11 @@
       <c r="D52">
         <v>223</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1051</v>
       </c>
@@ -1415,8 +1579,11 @@
       <c r="D53">
         <v>227</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1052</v>
       </c>
@@ -1429,8 +1596,11 @@
       <c r="D54">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1053</v>
       </c>
@@ -1443,8 +1613,11 @@
       <c r="D55">
         <v>207</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1054</v>
       </c>
@@ -1457,8 +1630,11 @@
       <c r="D56">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1055</v>
       </c>
@@ -1471,8 +1647,11 @@
       <c r="D57">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1056</v>
       </c>
@@ -1484,6 +1663,9 @@
       </c>
       <c r="D58">
         <v>38</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
